--- a/mockito_summary.xlsx
+++ b/mockito_summary.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
   <si>
     <t>public</t>
     <phoneticPr fontId="1"/>
@@ -201,13 +201,25 @@
     <rPh sb="45" eb="47">
       <t>バアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>public static</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>private</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -526,26 +538,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C6:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" customWidth="1"/>
+    <col min="7" max="7" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
@@ -591,10 +603,10 @@
       </c>
     </row>
     <row r="8" spans="3:9">
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
@@ -621,7 +633,7 @@
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -810,6 +822,213 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
         <v>21</v>
       </c>
     </row>

--- a/mockito_summary.xlsx
+++ b/mockito_summary.xlsx
@@ -1,6 +1,25 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="145621"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="27">
   <si>
     <t>public</t>
     <phoneticPr fontId="1"/>
@@ -217,18 +236,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,9 +256,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -527,11 +539,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:I32"/>
+  <dimension ref="C6:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -564,7 +574,7 @@
       </c>
     </row>
     <row r="7" spans="3:9">
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
@@ -587,7 +597,7 @@
       <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
@@ -614,18 +624,18 @@
       </c>
     </row>
     <row r="11" spans="3:9">
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:9">
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="3:9">
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="3:9">
       <c r="C14" t="s">
@@ -634,7 +644,7 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="3:9">
       <c r="C15" t="s">
@@ -643,7 +653,7 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="17" spans="3:9">
       <c r="C17" t="s">
@@ -1010,6 +1020,75 @@
         <v>13</v>
       </c>
       <c r="I32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
         <v>21</v>
       </c>
     </row>
